--- a/biology/Botanique/Classification_APG/Classification_APG.xlsx
+++ b/biology/Botanique/Classification_APG/Classification_APG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification APG (1998), ou classification phylogénétique, est une classification botanique des angiospermes établie selon les travaux de l'Angiosperm Phylogeny Group (APG). Elle est la première classification publiée par ce groupe, en 1998, les suivantes étant la classification phylogénétique APG II (2003), puis APG III (2009) et sa révision APG IV (2016).
 Elle traduit, dans le domaine des angiospermes, les efforts faits en systématique pour que le système de classification des êtres vivants reflète au plus près la « réalité historique » des liens de parenté, ou phylogénie, entre les espèces, qu'elles soient actuelles ou éteintes.
@@ -527,7 +539,9 @@
           <t>Familles et ordres de divergence ancienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>famille des Amborellaceae
 famille des Austrobaileyaceae
@@ -592,8 +606,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familles et ordres rattachés directement
-famille des Corsiaceae
+          <t>Familles et ordres rattachés directement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>famille des Corsiaceae
 famille des Japonoliriaceae
 famille des Nartheciaceae
 famille des Petrosaviaceae
@@ -665,9 +684,43 @@
 famille des Cyclanthaceae
 famille des Pandanaceae
 famille des Stemonaceae
-famille des Velloziaceae
-Commelinoides
-NB c'est commelinoids en APG (1998), mais
+famille des Velloziaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Commelinoides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NB c'est commelinoids en APG (1998), mais
 commelinids en APG II (2003)
 famille des Abolbodaceae
 famille des Bromeliaceae ( - famille  de l'ananas)
@@ -711,35 +764,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Classification_APG</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Dicotylédones vraies ou eudicotylédones</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(à pollen triaperturé ou plus)
-Familles et ordres rattachés directement
-On distingue un premier groupe de dicotylédones à pollen triaperturé ayant conservé des caractères
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou eudicotylédones</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Familles et ordres rattachés directement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On distingue un premier groupe de dicotylédones à pollen triaperturé ayant conservé des caractères
 primitifs.
 famille des Buxaceae ( - famille du buis).
 famille des Didymelaceae
@@ -760,11 +850,84 @@
 famille des Papaveraceae ( - famille du coquelicot)
 [+ famille des Fumariaceae ]
 [+ famille des Pteridophyllaceae ]
-famille des Ranunculaceae ( - famille du bouton d'or)
-Dicotylédones supérieures
-Les Dicotylédones supérieures (ou noyau des Dicotylédones vraies) sont les dicotylédones à fleurs tétracycliques (en général : 4-5 sépales, 4-5 pétales, 4-10 étamines, 2-5 carpelles)
-Familles et ordres rattachés directement
-famille des Aextoxicaceae
+famille des Ranunculaceae ( - famille du bouton d'or)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou eudicotylédones</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones supérieures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicotylédones supérieures (ou noyau des Dicotylédones vraies) sont les dicotylédones à fleurs tétracycliques (en général : 4-5 sépales, 4-5 pétales, 4-10 étamines, 2-5 carpelles)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou eudicotylédones</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dicotylédones supérieures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Familles et ordres rattachés directement</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>famille des Aextoxicaceae
 famille des Berberidopsidaceae
 famille des Dilleniaceae
 famille des Gunneraceae
@@ -817,9 +980,47 @@
 famille des Penthoraceae
 famille des Pterostemonaceae
 famille des Saxifragaceae( - famille des saxifrages)
-famille des Tetracarpaeaceae
-Rosidées
-Familles et ordres rattachés directement
+famille des Tetracarpaeaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou eudicotylédones</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dicotylédones supérieures</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rosidées</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Familles et ordres rattachés directement
 famille des Aphloiaceae
 famille des Crossosomataceae
 famille des Ixerbaceae
@@ -974,9 +1175,47 @@
 famille des Rutaceae ( - famille de l'orange)
 famille des Sapindaceae (incl. Aceraceae, Hippocastanaceae) ( - famille  du litchi, de
 l'érable et du marronnier d'inde).
-famille des Simaroubaceae( - famille  de l'ailante)
-Astéridées
-Ordres rattachés directement
+famille des Simaroubaceae( - famille  de l'ailante)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_APG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou eudicotylédones</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dicotylédones supérieures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Astéridées</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ordres rattachés directement
 ordre des Cornales
 famille des Cornaceae ( - famille du cornouiller)
 [+ famille des Nyssaceae ]
@@ -1104,31 +1343,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Classification_APG</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_APG</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Familles de position incertaine (pour la plupart Dicotylédones vraies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>famille des Balanophoraceae
 famille des Bonnetiaceae
